--- a/final_loan_tranche_aggregate.xlsx
+++ b/final_loan_tranche_aggregate.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasiraj/Library/CloudStorage/OneDrive-UniversityofGlasgow/Industry Project/code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E5A865-0008-1448-A67F-E50931FB0A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>label</t>
   </si>
@@ -32,6 +26,9 @@
   </si>
   <si>
     <t>tranche_fixed_rates</t>
+  </si>
+  <si>
+    <t>total_loans</t>
   </si>
   <si>
     <t>LLL</t>
@@ -118,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,21 +179,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -268,7 +257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,19 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +486,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>21</v>
@@ -516,12 +501,15 @@
         <v>192500</v>
       </c>
       <c r="D2">
-        <v>2.7881818181818181E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02788181818181818</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -530,12 +518,15 @@
         <v>201700</v>
       </c>
       <c r="D3">
-        <v>4.7997142857142863E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04799714285714286</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -544,12 +535,15 @@
         <v>195600</v>
       </c>
       <c r="D4">
-        <v>6.9507692307692298E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.0695076923076923</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -558,12 +552,15 @@
         <v>191200</v>
       </c>
       <c r="D5">
-        <v>2.9510810810810809E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02951081081081081</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>39</v>
@@ -572,12 +569,15 @@
         <v>161500</v>
       </c>
       <c r="D6">
-        <v>4.6741935483870962E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04674193548387096</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>38</v>
@@ -586,12 +586,15 @@
         <v>211600</v>
       </c>
       <c r="D7">
-        <v>6.7617948717948712E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06761794871794871</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>56</v>
@@ -600,12 +603,15 @@
         <v>166700</v>
       </c>
       <c r="D8">
-        <v>2.7618918918918909E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02761891891891891</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -614,12 +620,15 @@
         <v>209900</v>
       </c>
       <c r="D9">
-        <v>4.7315789473684221E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04731578947368422</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>54</v>
@@ -628,12 +637,15 @@
         <v>172300</v>
       </c>
       <c r="D10">
-        <v>6.8403125000000009E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06840312500000001</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -642,12 +654,15 @@
         <v>359200</v>
       </c>
       <c r="D11">
-        <v>2.7981481481481479E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02798148148148148</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -656,12 +671,15 @@
         <v>498500</v>
       </c>
       <c r="D12">
-        <v>4.6090000000000013E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04609000000000001</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -670,12 +688,15 @@
         <v>446400</v>
       </c>
       <c r="D13">
-        <v>6.8111764705882344E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06811176470588234</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>37</v>
@@ -684,12 +705,15 @@
         <v>364900</v>
       </c>
       <c r="D14">
-        <v>2.711071428571429E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02711071428571429</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>39</v>
@@ -698,12 +722,15 @@
         <v>396100</v>
       </c>
       <c r="D15">
-        <v>4.7173333333333338E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04717333333333334</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>39</v>
@@ -712,12 +739,15 @@
         <v>579200</v>
       </c>
       <c r="D16">
-        <v>6.9082222222222212E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06908222222222221</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>57</v>
@@ -726,12 +756,15 @@
         <v>699500</v>
       </c>
       <c r="D17">
-        <v>2.9607407407407409E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02960740740740741</v>
+      </c>
+      <c r="E17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>56</v>
@@ -740,12 +773,15 @@
         <v>484600</v>
       </c>
       <c r="D18">
-        <v>4.5202702702702713E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04520270270270271</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -754,12 +790,15 @@
         <v>378400</v>
       </c>
       <c r="D19">
-        <v>7.0492857142857149E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.07049285714285715</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -768,12 +807,15 @@
         <v>721300</v>
       </c>
       <c r="D20">
-        <v>2.8226470588235301E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.0282264705882353</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -782,12 +824,15 @@
         <v>774800</v>
       </c>
       <c r="D21">
-        <v>4.5643243243243238E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04564324324324324</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -796,12 +841,15 @@
         <v>779800</v>
       </c>
       <c r="D22">
-        <v>6.8968421052631582E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06896842105263158</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>38</v>
@@ -810,12 +858,15 @@
         <v>654100</v>
       </c>
       <c r="D23">
-        <v>2.67125E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.0267125</v>
+      </c>
+      <c r="E23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -824,12 +875,15 @@
         <v>606200</v>
       </c>
       <c r="D24">
-        <v>4.7010344827586217E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.04701034482758622</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -838,12 +892,15 @@
         <v>851200</v>
       </c>
       <c r="D25">
-        <v>6.8558536585365856E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.06855853658536586</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>56</v>
@@ -852,12 +909,15 @@
         <v>839800</v>
       </c>
       <c r="D26">
-        <v>2.9251282051282051E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.02925128205128205</v>
+      </c>
+      <c r="E26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>56</v>
@@ -866,12 +926,15 @@
         <v>917500</v>
       </c>
       <c r="D27">
-        <v>4.7081818181818197E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.0470818181818182</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>55</v>
@@ -880,7 +943,10 @@
         <v>719700</v>
       </c>
       <c r="D28">
-        <v>6.8176470588235283E-2</v>
+        <v>0.06817647058823528</v>
+      </c>
+      <c r="E28">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
